--- a/biology/Médecine/CIM-10_Chapitre_01___Certaines_maladies_infectieuses_et_parasitaires/CIM-10_Chapitre_01___Certaines_maladies_infectieuses_et_parasitaires.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_01___Certaines_maladies_infectieuses_et_parasitaires/CIM-10_Chapitre_01___Certaines_maladies_infectieuses_et_parasitaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article développe le Chapitre 01 : Certaines maladies infectieuses et parasitaires (A00-B99) de la classification internationale des maladies (CIM-10) publié par l'Organisation mondiale de la santé (OMS).
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">(A00-A09) Maladies intestinales infectieuses
-(A00) Choléra
+          <t>(A00-A09) Maladies intestinales infectieuses</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(A00) Choléra
 A00.0 Choléra classique
 A00.1 Choléra "El-Tor"
 A00.9 Choléra, sans précision
@@ -583,9 +600,43 @@
 (A08.5) Autres infections intestinales précisées
 (A09) Diarrhée et gastro-entérite d'origine infectieuse présumée
 (A09.0) Gastro-entérites et colites d'origine infectieuse, autres et non précisées
-(A09.9) Gastro-entérite et colite d'origine non précisée
-(A15-A19) Tuberculose
-(A15) Tuberculose de l'appareil respiratoire, avec confirmation bactériologique et histologique
+(A09.9) Gastro-entérite et colite d'origine non précisée</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(A15-A19) Tuberculose</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(A15) Tuberculose de l'appareil respiratoire, avec confirmation bactériologique et histologique
 (A15.0) Tuberculose pulmonaire, confirmée par examen microscopique de l'expectoration, avec ou sans culture
 (A15.1) Tuberculose pulmonaire, confirmée par culture seulement
 (A15.2) Tuberculose pulmonaire, avec confirmation histologique
@@ -626,9 +677,43 @@
 (A19.1) Tuberculose miliaire aigüe, sièges multiples
 (A19.2) Tuberculose miliaire aigüe, sans précision
 (A19.8) Autres tuberculoses miliaires
-(A19.9) Tuberculose miliaire, sans précision
-(A20-A28) Certaines anthropozoonoses bactériennes
-(A20) Peste (Yersinia pestis)
+(A19.9) Tuberculose miliaire, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(A20-A28) Certaines anthropozoonoses bactériennes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(A20) Peste (Yersinia pestis)
 (A20.0) Peste bubonique
 (A20.1) Peste cutanée
 (A20.2) Peste pulmonaire
@@ -682,9 +767,43 @@
 (A28.1) Maladie des griffes du chat
 (A28.2) Yersiniose extra-intestinale
 (A28.8) Autres anthropozoonoses bactériennes précisées, non classées ailleurs
-(A28.9) Anthropozoonose bactérienne, sans précision
-(A30-A49) Autres maladies bactériennes
-(A30) Lèpre (maladie de Hansen) (infection à Mycobacterium leprae)
+(A28.9) Anthropozoonose bactérienne, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(A30-A49) Autres maladies bactériennes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(A30) Lèpre (maladie de Hansen) (infection à Mycobacterium leprae)
 (A30.0) Lèpre indéterminée
 (A30.1) Lèpre tuberculoïde
 (A30.2) Lèpre tuberculoïde de type intermédiaire atypique
@@ -776,9 +895,43 @@
 (A49.2) Infection à Haemophilus influenzae, sans précision
 (A49.3) Infection à Mycoplasma, sans précision
 (A49.8) Autres infections bactériennes, siège non précisé
-(A49.9) Infection bactérienne, sans précision
-(A50-A64) Infections dont le mode de transmission est essentiellement sexuel
-(A50) Syphilis congénitale
+(A49.9) Infection bactérienne, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(A50-A64) Infections dont le mode de transmission est essentiellement sexuel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(A50) Syphilis congénitale
 (A50.0) Syphilis congénitale précoce, symptomatique
 (A50.1) Syphilis congénitale précoce, latente
 (A50.2) Syphilis congénitale précoce, sans précision
@@ -840,9 +993,43 @@
 (A63.00) Condylomes anaux
 (A63.08) Autres condylomes anogénitaux
 (A63.8) Autres maladies précisées dont le mode de transmission est essentiellement sexuel
-(A64) Maladie sexuellement transmise, sans précision
-(A65-A69) Autres maladies à spirochètes
-(A65) Syphilis non vénérienne
+(A64) Maladie sexuellement transmise, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(A65-A69) Autres maladies à spirochètes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(A65) Syphilis non vénérienne
 (A66) Pian
 (A67) Pinta
 (A68) Fièvres récurrentes (borrélioses)
@@ -854,13 +1041,81 @@
 (A69.1) Autres infections dites de Vincent
 (A69.2) Maladie de Lyme
 (A69.8) Autres infections à spirochètes précisées
-(A69.9) Infection à spirochètes, sans précision
-(A70-A74) Autres maladies à Chlamydia
-(A70) Infection à Chlamydia psittaci
+(A69.9) Infection à spirochètes, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(A70-A74) Autres maladies à Chlamydia</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(A70) Infection à Chlamydia psittaci
 (A71) Trachome
-(A74) Autres infections à Chlamydia
-(A75-A79) Rickettsioses
-(A75) Typhus
+(A74) Autres infections à Chlamydia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(A75-A79) Rickettsioses</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(A75) Typhus
 (A75.0) Typhus exanthématique à poux dû à Rickettsia prowazekii
 (A75.1) Typhus résurgent (Maladie de Brill-Zinsser)
 (A75.2) Typhus à Rickettsia typhi
@@ -878,9 +1133,43 @@
 (A79.0) Fièvre des tranchées
 (A79.1) Rickettsiose varicelliforme due à Rickettsia akari
 (A79.8) Autres types précisés de rickettsiose
-(A79.9) Rickettsiose, sans précision
-(A80-A89) Infections virales du système nerveux central
-(A80) Poliomyélite aigüe
+(A79.9) Rickettsiose, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(A80-A89) Infections virales du système nerveux central</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(A80) Poliomyélite aigüe
 (A81) Infections atypiques à virus, du système nerveux central
 (A81.0) Maladie de Creutzfeldt-Jakob
 (A81.1) Panencéphalite sclérosante subaigüe (PESS ou maladie de Van Bogaert)
@@ -912,9 +1201,43 @@
 (A87.8) Autres méningites virales
 (A87.9) Méningite virale, sans précision
 (A88) Autres infections virales du système nerveux central, non classées ailleurs
-(A89) Infection virale du système nerveux central, sans précision
-(A92-A99) Fièvres virales transmises par des arthropodes et fièvres virales hémorragiques
-(A92) Autres fièvres virales transmises par des moustiques
+(A89) Infection virale du système nerveux central, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(A92-A99) Fièvres virales transmises par des arthropodes et fièvres virales hémorragiques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(A92) Autres fièvres virales transmises par des moustiques
 (A92.0) Fièvre de Chikungunya
 (A92.1) Fièvre due au virus O'nyong-nyong
 (A92.2) Fièvre équine vénézuélienne
@@ -940,9 +1263,43 @@
 (A97.2) Dengue sévère
 (A97.9) Dengue, sans précision
 (A98) Autres fièvres hémorragiques virales, non classées ailleurs
-(A99) Fièvre hémorragique virale, sans précision
-(B00-B09) Infections virales caractérisées par des lésions cutanéo-muqueuses
-(B00) Infections par le virus de l'herpès (herpes simplex)
+(A99) Fièvre hémorragique virale, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(B00-B09) Infections virales caractérisées par des lésions cutanéo-muqueuses</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(B00) Infections par le virus de l'herpès (herpes simplex)
 (B00.0) eczéma herpétique
 (B00.1) Dermite vésiculaire due au virus de l'herpès
 (B00.2) Gingivostomatite et pharyngoamygdalite due au virus de l'herpès
@@ -967,9 +1324,43 @@
 (B08.4) Stomatite vésiculaire avec exanthème, due à un entérovirus (Syndrome pied-main-bouche)
 (B08.5) Pharyngite vésiculaire due à un entérovirus (Herpangine)
 (B08.8) Autres infections virales précisées, caractérisées par des lésions cutanéomuqueuses
-(B09) Infection virale caractérisée par des lésions cutanéomuqueuses, sans précision
-(B15-B19) Hépatite virale
-(B15) Hépatite aigüe A
+(B09) Infection virale caractérisée par des lésions cutanéomuqueuses, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>(B15-B19) Hépatite virale</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(B15) Hépatite aigüe A
 (B15.0) Hépatite aigüe A avec coma hépatique
 (B15.9) Hépatite aigüe A sans coma hépatique
 (B16) Hépatite aigüe B
@@ -990,9 +1381,43 @@
 (B18.9) Hépatite virale chronique, sans précision
 (B19) Hépatite virale, sans précision
 (B19.0) Hépatite virale, sans précision, avec coma
-(B19.9) Hépatite virale, sans précision, sans coma
-(B20-B24) Maladies dues au virus de l'immunodéficience humaine (VIH)
-(B20) Immunodéficience humaine virale, à l'origine de maladies infectieuses et parasitaires
+(B19.9) Hépatite virale, sans précision, sans coma</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>(B20-B24) Maladies dues au virus de l'immunodéficience humaine (VIH)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(B20) Immunodéficience humaine virale, à l'origine de maladies infectieuses et parasitaires
 (B20.0) Maladie par VIH à l'origine d'une infection mycobactérienne
 (B20.1) Maladie par VIH à l'origine d'autres infections bactériennes
 (B20.2) Maladie par VIH à l'origine d'infections à cytomégalovirus
@@ -1024,9 +1449,43 @@
 (B24) Immunodéficience humaine virale, sans précision
 (B24.+0) Complexe relatif au SIDA, sans précision
 (B24.+1) Syndrome d'immunodéficience acquise  avéré, sans précision
-(B24.+9) Infection par le virus de l'immunodéficience humaine, sans précision
-(B25-B34) Autres maladies virales
-(B25) Maladie à cytomégalovirus
+(B24.+9) Infection par le virus de l'immunodéficience humaine, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>(B25-B34) Autres maladies virales</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(B25) Maladie à cytomégalovirus
 (B25.0) Pneumopathie à cytomégalovirus  (J17.1)
 (B25.1) Hépatite à cytomégalovirus (K77.0)
 (B25.2) Pancréatite à cytomégalovirus ( K87.1)
@@ -1070,9 +1529,43 @@
 (B34.3) Infection parvovirale, sans précision
 (B34.4) Infection papovavirale, sans précision
 (B34.8) Autres infections virales, siège non précisé
-(B34.9) Infection virale, sans précision
-(B35-B49) Mycoses
-(B35) Dermatophytose
+(B34.9) Infection virale, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>(B35-B49) Mycoses</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(B35) Dermatophytose
 (B36) Autres mycoses superficielles
 (B36.0) Pityriasis versicolor
 (B36.1) Tinea nigra
@@ -1092,9 +1585,43 @@
 (B46) Zygomycose
 (B47) Mycétome
 (B48) Autres mycoses, non classées ailleurs
-(B49) Mycose, sans précision
-(B50-B64) Maladies dues à des protozoaires
-(B50) Paludisme à Plasmodium falciparum
+(B49) Mycose, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>(B50-B64) Maladies dues à des protozoaires</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(B50) Paludisme à Plasmodium falciparum
 (B51) Paludisme à Plasmodium vivax
 (B52) Paludisme à Plasmodium malariae
 (B53) Autres paludismes confirmés par examen parasitologique
@@ -1105,9 +1632,43 @@
 (B58) Toxoplasmose
 (B59) Pneumocystose
 (B60) Autres maladies dues à des protozoaires, non classées ailleurs
-(B64) Maladie due à des protozoaires, sans précision
-(B65-B83) Helminthiases
-(B65) Bilharziose
+(B64) Maladie due à des protozoaires, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>(B65-B83) Helminthiases</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(B65) Bilharziose
 (B66) Autres infections par douves (distomatoses)
 (B67) Echinococcose
 (B68) Infection à Taenia
@@ -1122,20 +1683,122 @@
 (B80) Oxyurose
 (B81) Autres helminthiases intestinales, non classées ailleurs
 (B82) Parasitose intestinale, sans précision
-(B83) Autres helminthiases
-(B85-B89) Pédiculose, acariase et autres infestations
-(B85) Pédiculose corporelle, pédiculose du cuir chevelu et phtiriase
+(B83) Autres helminthiases</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>(B85-B89) Pédiculose, acariase et autres infestations</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(B85) Pédiculose corporelle, pédiculose du cuir chevelu et phtiriase
 (B86) Gale
 (B87) Myiase
 (B88) Autres infestations
-(B89) Parasitose, sans précision
-(B90-B94) Séquelles de maladies infectieuses et parasitaires
-(B90) Séquelles de tuberculose
+(B89) Parasitose, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>(B90-B94) Séquelles de maladies infectieuses et parasitaires</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(B90) Séquelles de tuberculose
 (B91) Séquelles de poliomyélite
 (B92) Séquelles de lèpre
-(B94) Séquelles de maladies infectieuses et parasitaires, autres et non précisées
-(B95-B97) Agents d'infections bactériennes, virales et autres
-(B95) Streptocoques et staphylocoques, cause de maladies classées dans d'autres chapitres
+(B94) Séquelles de maladies infectieuses et parasitaires, autres et non précisées</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_01_:_Certaines_maladies_infectieuses_et_parasitaires</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>(B95-B97) Agents d'infections bactériennes, virales et autres</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(B95) Streptocoques et staphylocoques, cause de maladies classées dans d'autres chapitres
 (B96) Autres agents bactériens, cause de maladies classées dans d'autres chapitres
 (B96.0) Mycoplasma pneumoniae
 (B96.1) Klebsiella pneumoniae
